--- a/visog-job-portal-api/src/main/resources/Excel_Worksheet/Visog_WorkSheet1.xlsx
+++ b/visog-job-portal-api/src/main/resources/Excel_Worksheet/Visog_WorkSheet1.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="63">
   <si>
     <t>TABLE NAME</t>
   </si>
@@ -203,6 +202,9 @@
   </si>
   <si>
     <t>Bala</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1689,7 +1691,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>49</v>
@@ -1706,7 +1708,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>49</v>
@@ -1791,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
         <v>49</v>
@@ -1842,7 +1844,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
         <v>49</v>
@@ -1900,6 +1902,11 @@
       </c>
       <c r="E36" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/visog-job-portal-api/src/main/resources/Excel_Worksheet/Visog_WorkSheet1.xlsx
+++ b/visog-job-portal-api/src/main/resources/Excel_Worksheet/Visog_WorkSheet1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="64">
   <si>
     <t>TABLE NAME</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>Headers</t>
   </si>
 </sst>
 </file>
@@ -1026,23 +1029,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="2" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1050,42 +1053,45 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1096,12 +1102,12 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>49</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>49</v>
       </c>
       <c r="H3" t="s">
@@ -1116,8 +1122,11 @@
       <c r="K3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1128,12 +1137,12 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>49</v>
       </c>
       <c r="H4" t="s">
@@ -1148,8 +1157,11 @@
       <c r="K4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1157,15 +1169,15 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
       <c r="E5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>49</v>
       </c>
       <c r="H5" t="s">
@@ -1180,8 +1192,11 @@
       <c r="K5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1192,12 +1207,12 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>49</v>
       </c>
       <c r="H6" t="s">
@@ -1212,8 +1227,11 @@
       <c r="K6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1221,15 +1239,15 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
       <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>49</v>
       </c>
       <c r="H7" t="s">
@@ -1244,8 +1262,11 @@
       <c r="K7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1256,12 +1277,12 @@
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
         <v>49</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
         <v>49</v>
       </c>
       <c r="H8" t="s">
@@ -1276,8 +1297,11 @@
       <c r="K8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1285,15 +1309,15 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
       <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
         <v>49</v>
       </c>
       <c r="H9" t="s">
@@ -1308,8 +1332,11 @@
       <c r="K9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1320,12 +1347,12 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
         <v>49</v>
       </c>
       <c r="H10" t="s">
@@ -1340,8 +1367,11 @@
       <c r="K10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1352,12 +1382,12 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
         <v>49</v>
       </c>
       <c r="H11" t="s">
@@ -1372,8 +1402,11 @@
       <c r="K11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1384,12 +1417,12 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
         <v>49</v>
       </c>
       <c r="H12" t="s">
@@ -1404,8 +1437,11 @@
       <c r="K12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1413,15 +1449,15 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
       <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" t="s">
         <v>49</v>
       </c>
       <c r="H13" t="s">
@@ -1436,8 +1472,11 @@
       <c r="K13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1445,15 +1484,15 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
       <c r="E14" t="s">
         <v>49</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s">
         <v>49</v>
       </c>
       <c r="H14" t="s">
@@ -1468,8 +1507,11 @@
       <c r="K14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1480,12 +1522,12 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>49</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
         <v>49</v>
       </c>
       <c r="H15" t="s">
@@ -1500,8 +1542,11 @@
       <c r="K15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1512,12 +1557,12 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>49</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
         <v>49</v>
       </c>
       <c r="H16" t="s">
@@ -1532,8 +1577,11 @@
       <c r="K16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1544,12 +1592,12 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s">
         <v>49</v>
       </c>
       <c r="H17" t="s">
@@ -1564,8 +1612,11 @@
       <c r="K17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1576,13 +1627,16 @@
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1593,12 +1647,12 @@
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
         <v>49</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19" t="s">
         <v>49</v>
       </c>
       <c r="H19" t="s">
@@ -1613,8 +1667,11 @@
       <c r="K19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1622,15 +1679,15 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
       <c r="E20" t="s">
         <v>49</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="H20" t="s">
@@ -1645,8 +1702,11 @@
       <c r="K20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1654,15 +1714,15 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
         <v>47</v>
       </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
       <c r="E21" t="s">
         <v>49</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F21" t="s">
         <v>49</v>
       </c>
       <c r="H21" t="s">
@@ -1677,234 +1737,237 @@
       <c r="K21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
       <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
       <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>61</v>
       </c>
-      <c r="D26" t="s">
-        <v>49</v>
-      </c>
       <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>50</v>
       </c>
       <c r="E27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
       <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>26</v>
       </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
       <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>24</v>
       </c>
-      <c r="D30" t="s">
-        <v>49</v>
-      </c>
       <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>45</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>45</v>
       </c>
-      <c r="D31" t="s">
-        <v>49</v>
-      </c>
       <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>25</v>
       </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
       <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
       <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>28</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>28</v>
       </c>
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
       <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>50</v>
       </c>
       <c r="E35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>25</v>
       </c>
-      <c r="D36" t="s">
-        <v>49</v>
-      </c>
       <c r="E36" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>62</v>
       </c>
